--- a/data/tags.xlsx
+++ b/data/tags.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3412f527ee440f51/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048EE899D6BBE5BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7404D005-2376-4C29-A803-A736350DB5FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>data</t>
   </si>
@@ -40,17 +39,191 @@
   </si>
   <si>
     <t>greeting</t>
+  </si>
+  <si>
+    <t>Traget User</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Machine Learning Algorthims</t>
+  </si>
+  <si>
+    <t>Data preprocessing</t>
+  </si>
+  <si>
+    <t>Feature engineering</t>
+  </si>
+  <si>
+    <t>Model Evaluation Metrics</t>
+  </si>
+  <si>
+    <t>Supervised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupervised </t>
+  </si>
+  <si>
+    <t>Reinforcement</t>
+  </si>
+  <si>
+    <t>corss validation</t>
+  </si>
+  <si>
+    <t>ensemble learning</t>
+  </si>
+  <si>
+    <t>hyperparameter tuning</t>
+  </si>
+  <si>
+    <t>data visualization</t>
+  </si>
+  <si>
+    <t>Programming languages</t>
+  </si>
+  <si>
+    <t>big data technologies</t>
+  </si>
+  <si>
+    <t>popular libraries and Framework</t>
+  </si>
+  <si>
+    <t>data Science tools</t>
+  </si>
+  <si>
+    <t>blog for data science</t>
+  </si>
+  <si>
+    <t>https://developer.feedspot.com/data_science_blogs/</t>
+  </si>
+  <si>
+    <t>Natural Language processing</t>
+  </si>
+  <si>
+    <t>Time Series Analysis</t>
+  </si>
+  <si>
+    <t>Clustring Algorthims</t>
+  </si>
+  <si>
+    <t>Dimensionality Reduction</t>
+  </si>
+  <si>
+    <t>Data Science project Lifecycle</t>
+  </si>
+  <si>
+    <t>kaggle for data science</t>
+  </si>
+  <si>
+    <t>Data Warehousing</t>
+  </si>
+  <si>
+    <t>IDE for data science</t>
+  </si>
+  <si>
+    <t>colab, jupyter notebook</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>statistical Description</t>
+  </si>
+  <si>
+    <t>Feature Scaling</t>
+  </si>
+  <si>
+    <t>Handling missing data</t>
+  </si>
+  <si>
+    <t>Deep learning</t>
+  </si>
+  <si>
+    <t>skills for data science</t>
+  </si>
+  <si>
+    <t>problem solving skills</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>Data Mining</t>
+  </si>
+  <si>
+    <t>Web Scraping</t>
+  </si>
+  <si>
+    <t>Data Engineering</t>
+  </si>
+  <si>
+    <t>company in data science</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>job titles and responsibilities in data science</t>
+  </si>
+  <si>
+    <t>job salary</t>
+  </si>
+  <si>
+    <t>power bi vs tabluea</t>
+  </si>
+  <si>
+    <t>why data science is important</t>
+  </si>
+  <si>
+    <t>popular libraries to visulization</t>
+  </si>
+  <si>
+    <t>common machine learning algorthims</t>
+  </si>
+  <si>
+    <t>popular nlp libraries</t>
+  </si>
+  <si>
+    <t>why learning data science</t>
+  </si>
+  <si>
+    <t>overfitting and underfitting</t>
+  </si>
+  <si>
+    <t>python vs. R</t>
+  </si>
+  <si>
+    <t>Data science Certification</t>
+  </si>
+  <si>
+    <t>best youtube channels</t>
+  </si>
+  <si>
+    <t>platform for study data science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform for share me works </t>
+  </si>
+  <si>
+    <t>LinkedIn, github</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -356,41 +529,329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/tags.xlsx
+++ b/data/tags.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A6692E-BC8D-40B9-BF8D-A176B7EA26BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>data</t>
   </si>
@@ -170,9 +171,6 @@
     <t>Data Analytics</t>
   </si>
   <si>
-    <t>job titles and responsibilities in data science</t>
-  </si>
-  <si>
     <t>job salary</t>
   </si>
   <si>
@@ -213,17 +211,110 @@
   </si>
   <si>
     <t>LinkedIn, github</t>
+  </si>
+  <si>
+    <t>where to get data</t>
+  </si>
+  <si>
+    <t>job titles</t>
+  </si>
+  <si>
+    <t>job responsibilites</t>
+  </si>
+  <si>
+    <t>data science trends</t>
+  </si>
+  <si>
+    <t>data pipelines</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>buying a laptop for data science</t>
+  </si>
+  <si>
+    <t>data science and software engineering</t>
+  </si>
+  <si>
+    <t>jokes</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>comparing to chatgpt</t>
+  </si>
+  <si>
+    <t>limitations</t>
+  </si>
+  <si>
+    <t>nosql</t>
+  </si>
+  <si>
+    <t>books for data science</t>
+  </si>
+  <si>
+    <t>sql vs ecxel</t>
+  </si>
+  <si>
+    <t>lablab.me</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>getting a degree</t>
+  </si>
+  <si>
+    <t>data modeling</t>
+  </si>
+  <si>
+    <t>no answer</t>
+  </si>
+  <si>
+    <t>what are you</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>databases</t>
+  </si>
+  <si>
+    <t>people in data science</t>
+  </si>
+  <si>
+    <t>the importance of projects</t>
+  </si>
+  <si>
+    <t>business intellegnace</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>BAU</t>
+  </si>
+  <si>
+    <t>chatbots</t>
+  </si>
+  <si>
+    <t>chatbots vs LLM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -529,129 +620,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -659,42 +750,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -702,152 +793,302 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
